--- a/data/TestData.xlsx
+++ b/data/TestData.xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="13725" windowHeight="6420"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="13725" windowHeight="6420" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name=" Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name=" Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
-  <oleSize ref="A1"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>TYSS</t>
   </si>
@@ -35,6 +34,24 @@
   </si>
   <si>
     <t>4123547</t>
+  </si>
+  <si>
+    <t>Aristotal</t>
+  </si>
+  <si>
+    <t>CAM4</t>
+  </si>
+  <si>
+    <t>Manthas</t>
+  </si>
+  <si>
+    <t>CAM1</t>
+  </si>
+  <si>
+    <t>CampaignNo</t>
+  </si>
+  <si>
+    <t>CampaignName</t>
   </si>
 </sst>
 </file>
@@ -369,8 +386,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -422,6 +439,9 @@
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -430,12 +450,43 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="13.85546875" customWidth="1"/>
+    <col min="2" max="2" width="18" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
